--- a/bots/crawl_ch/output/electronics_2022-07-18.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-18.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1739,29 +1739,29 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1800,39 +1800,39 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1871,34 +1871,34 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3494233</t>
+          <t>6761135</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1906,25 +1906,23 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>9.95/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1934,7 +1932,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1949,29 +1947,29 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6761135</t>
+          <t>3494233</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
+          <t>Varta Electronics CR2032 1er Bli</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1979,23 +1977,25 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9.95/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2020,12 +2020,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -2384,50 +2384,48 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6753554</t>
+          <t>6999781</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 4 Stück</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-4-stueck/p/6753554</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
+          <t>24ST</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2.99/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2437,7 +2435,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2447,85 +2445,105 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 4 Stück 11.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6508223</t>
+          <t>6999749</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>satrap Venti WS Standventilator</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-venti-ws-standventilator/p/6508223</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>24ST</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>59.95</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.87/1ST</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>satrap Venti WS Standventilator 59.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3494130</t>
+          <t>6753554</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli</t>
+          <t>Duracell Batterien Optimum AA/LR6 4 Stück</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-4-stueck/p/6753554</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2537,21 +2555,21 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>2.99/1ST</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2561,7 +2579,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2576,128 +2594,106 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AA/LR6 4 Stück 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3494065</t>
+          <t>6508223</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli</t>
+          <t>satrap Venti WS Standventilator</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-venti-ws-standventilator/p/6508223</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2.49/1ST</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>59.95</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
+          <t>satrap Venti WS Standventilator 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5683906</t>
+          <t>3494130</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l</t>
+          <t>Varta Longlife Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>4</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>19.95/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2707,7 +2703,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2717,44 +2713,46 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l - Online kein Bestand 19.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6999781</t>
+          <t>3494065</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
+          <t>Varta Longlife Max Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-max-power-aa-4er-bli/p/3494065</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>24ST</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2763,12 +2761,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2778,7 +2776,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2788,46 +2786,46 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4905484</t>
+          <t>5683906</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück</t>
+          <t>Prix Garantie Wasserkocher 1l</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2836,12 +2834,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.98/1ST</t>
+          <t>19.95/1ST</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2851,7 +2849,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2861,58 +2859,60 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
+          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6999749</t>
+          <t>4905484</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
+          <t>Alkaline Batterie LR20/D 2 Stück</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>24ST</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>2.98/1ST</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2932,17 +2932,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3332,32 +3332,32 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5751576</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -3380,37 +3380,37 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>5751576</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>satrap Toasty 1 Toaster</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
+          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3489,48 +3489,50 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>4358323</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3.98/1ST</t>
+          <t>1.66/1ST</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3540,7 +3542,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3555,55 +3557,53 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4358323</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1.66/1ST</t>
+          <t>3.98/1ST</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3628,12 +3628,12 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -3792,100 +3792,82 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3494131</t>
+          <t>4942594</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli</t>
+          <t>Skross Adapter World-Schweiz</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>3494131</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>Varta Longlife Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E51" t="n">
         <v>3</v>
       </c>
@@ -3894,63 +3876,81 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>119.00</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2.24/1ST</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
+          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4942594</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>119.00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3964,12 +3964,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-18 07:04:39</t>
+          <t>2022-07-18 20:57:16</t>
         </is>
       </c>
     </row>
